--- a/Hoàng/2025/T5/CT PT VÀ KHAI THÁC HẠ TẦNG KHU CÔNG NGHIỆP ĐÀ NẴNG (74-2025)/THIỆN NHÂN BG KSK - CÔNG TY PHÁT TRIỂN VÀ KHAI THAC HẠ TẦNG KHU CÔNG NGHIỆP ĐÀ NẴNG.xlsx
+++ b/Hoàng/2025/T5/CT PT VÀ KHAI THÁC HẠ TẦNG KHU CÔNG NGHIỆP ĐÀ NẴNG (74-2025)/THIỆN NHÂN BG KSK - CÔNG TY PHÁT TRIỂN VÀ KHAI THAC HẠ TẦNG KHU CÔNG NGHIỆP ĐÀ NẴNG.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\DATA-TN\Hoàng\2025\CT PT VÀ KHAI THÁC HẠ TẦNG KHU CÔNG NGHIỆP ĐÀ NẴNG (74-2025)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\DATA-TN\Hoàng\2025\T5\CT PT VÀ KHAI THÁC HẠ TẦNG KHU CÔNG NGHIỆP ĐÀ NẴNG (74-2025)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C26536EC-F22D-4F1C-BCAB-7A9478518816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE00A47-C754-4779-A099-4E8B29899290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Thiện Phước" sheetId="4" r:id="rId1"/>
@@ -1635,6 +1635,39 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="29" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="29" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1671,41 +1704,53 @@
     <xf numFmtId="1" fontId="30" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="29" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="29" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
@@ -1734,53 +1779,119 @@
     <xf numFmtId="1" fontId="13" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="39" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="36" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="40" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1799,117 +1910,6 @@
     </xf>
     <xf numFmtId="3" fontId="45" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="39" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="36" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2441,7 +2441,7 @@
   </sheetPr>
   <dimension ref="A1:E87"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A37" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A37" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
@@ -2835,40 +2835,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1" s="175" t="s">
+      <c r="A1" s="162" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="175"/>
-      <c r="C1" s="175"/>
-      <c r="D1" s="175"/>
-      <c r="E1" s="175"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A2" s="175" t="s">
+      <c r="A2" s="162" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="175"/>
-      <c r="C2" s="175"/>
-      <c r="D2" s="175"/>
-      <c r="E2" s="175"/>
+      <c r="B2" s="162"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A3" s="175" t="s">
+      <c r="A3" s="162" t="s">
         <v>116</v>
       </c>
-      <c r="B3" s="175"/>
-      <c r="C3" s="175"/>
-      <c r="D3" s="175"/>
-      <c r="E3" s="175"/>
+      <c r="B3" s="162"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="162"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A4" s="175" t="s">
+      <c r="A4" s="162" t="s">
         <v>117</v>
       </c>
-      <c r="B4" s="175"/>
-      <c r="C4" s="175"/>
-      <c r="D4" s="175"/>
-      <c r="E4" s="175"/>
+      <c r="B4" s="162"/>
+      <c r="C4" s="162"/>
+      <c r="D4" s="162"/>
+      <c r="E4" s="162"/>
     </row>
     <row r="5" spans="1:5" ht="15">
       <c r="A5" s="63"/>
@@ -2876,51 +2876,51 @@
       <c r="C5" s="65"/>
     </row>
     <row r="6" spans="1:5" ht="26.25" customHeight="1">
-      <c r="A6" s="178" t="s">
+      <c r="A6" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="179"/>
-      <c r="C6" s="179"/>
-      <c r="D6" s="179"/>
-      <c r="E6" s="179"/>
+      <c r="B6" s="166"/>
+      <c r="C6" s="166"/>
+      <c r="D6" s="166"/>
+      <c r="E6" s="166"/>
     </row>
     <row r="7" spans="1:5" s="66" customFormat="1" ht="25.5" customHeight="1">
       <c r="A7" s="71"/>
-      <c r="B7" s="180" t="s">
+      <c r="B7" s="167" t="s">
         <v>124</v>
       </c>
-      <c r="C7" s="180"/>
-      <c r="D7" s="180"/>
-      <c r="E7" s="180"/>
+      <c r="C7" s="167"/>
+      <c r="D7" s="167"/>
+      <c r="E7" s="167"/>
     </row>
     <row r="8" spans="1:5" s="66" customFormat="1" ht="41.25" customHeight="1">
-      <c r="A8" s="176" t="s">
+      <c r="A8" s="163" t="s">
         <v>118</v>
       </c>
-      <c r="B8" s="177"/>
-      <c r="C8" s="177"/>
-      <c r="D8" s="177"/>
-      <c r="E8" s="177"/>
+      <c r="B8" s="164"/>
+      <c r="C8" s="164"/>
+      <c r="D8" s="164"/>
+      <c r="E8" s="164"/>
     </row>
     <row r="9" spans="1:5" s="32" customFormat="1" ht="15.75">
-      <c r="A9" s="165" t="s">
+      <c r="A9" s="176" t="s">
         <v>82</v>
       </c>
-      <c r="B9" s="166" t="s">
+      <c r="B9" s="177" t="s">
         <v>83</v>
       </c>
-      <c r="C9" s="166" t="s">
+      <c r="C9" s="177" t="s">
         <v>84</v>
       </c>
-      <c r="D9" s="166" t="s">
+      <c r="D9" s="177" t="s">
         <v>73</v>
       </c>
-      <c r="E9" s="166"/>
+      <c r="E9" s="177"/>
     </row>
     <row r="10" spans="1:5" s="32" customFormat="1" ht="15.75">
-      <c r="A10" s="165"/>
-      <c r="B10" s="166"/>
-      <c r="C10" s="166"/>
+      <c r="A10" s="176"/>
+      <c r="B10" s="177"/>
+      <c r="C10" s="177"/>
       <c r="D10" s="75" t="s">
         <v>74</v>
       </c>
@@ -2929,16 +2929,16 @@
       </c>
     </row>
     <row r="11" spans="1:5" s="32" customFormat="1" ht="15.75">
-      <c r="A11" s="167" t="s">
+      <c r="A11" s="178" t="s">
         <v>85</v>
       </c>
-      <c r="B11" s="167"/>
-      <c r="C11" s="167"/>
-      <c r="D11" s="167"/>
-      <c r="E11" s="167"/>
+      <c r="B11" s="178"/>
+      <c r="C11" s="178"/>
+      <c r="D11" s="178"/>
+      <c r="E11" s="178"/>
     </row>
     <row r="12" spans="1:5" s="32" customFormat="1" ht="30">
-      <c r="A12" s="168">
+      <c r="A12" s="179">
         <v>1</v>
       </c>
       <c r="B12" s="76" t="s">
@@ -2955,7 +2955,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" s="32" customFormat="1" ht="30">
-      <c r="A13" s="168"/>
+      <c r="A13" s="179"/>
       <c r="B13" s="76" t="s">
         <v>88</v>
       </c>
@@ -2970,7 +2970,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" s="32" customFormat="1" ht="30">
-      <c r="A14" s="168"/>
+      <c r="A14" s="179"/>
       <c r="B14" s="76" t="s">
         <v>90</v>
       </c>
@@ -2985,7 +2985,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" s="32" customFormat="1" ht="15">
-      <c r="A15" s="168"/>
+      <c r="A15" s="179"/>
       <c r="B15" s="79" t="s">
         <v>92</v>
       </c>
@@ -3000,7 +3000,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" s="32" customFormat="1" ht="15">
-      <c r="A16" s="168"/>
+      <c r="A16" s="179"/>
       <c r="B16" s="79" t="s">
         <v>94</v>
       </c>
@@ -3015,7 +3015,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" s="32" customFormat="1" ht="15">
-      <c r="A17" s="168"/>
+      <c r="A17" s="179"/>
       <c r="B17" s="79" t="s">
         <v>95</v>
       </c>
@@ -3030,7 +3030,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" s="32" customFormat="1" ht="15">
-      <c r="A18" s="168"/>
+      <c r="A18" s="179"/>
       <c r="B18" s="79" t="s">
         <v>97</v>
       </c>
@@ -3296,11 +3296,11 @@
       </c>
     </row>
     <row r="34" spans="1:5" s="32" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A34" s="169" t="s">
+      <c r="A34" s="161" t="s">
         <v>54</v>
       </c>
-      <c r="B34" s="169"/>
-      <c r="C34" s="169"/>
+      <c r="B34" s="161"/>
+      <c r="C34" s="161"/>
       <c r="D34" s="96">
         <f>SUM(D12:D33)</f>
         <v>1084000</v>
@@ -3311,12 +3311,12 @@
       </c>
     </row>
     <row r="35" spans="1:5" s="32" customFormat="1" ht="15.75">
-      <c r="A35" s="173" t="s">
+      <c r="A35" s="182" t="s">
         <v>77</v>
       </c>
-      <c r="B35" s="173"/>
-      <c r="C35" s="173"/>
-      <c r="D35" s="173"/>
+      <c r="B35" s="182"/>
+      <c r="C35" s="182"/>
+      <c r="D35" s="182"/>
       <c r="E35" s="97"/>
     </row>
     <row r="36" spans="1:5" s="32" customFormat="1" ht="30">
@@ -3326,10 +3326,10 @@
       <c r="B36" s="99" t="s">
         <v>67</v>
       </c>
-      <c r="C36" s="174" t="s">
+      <c r="C36" s="160" t="s">
         <v>21</v>
       </c>
-      <c r="D36" s="174"/>
+      <c r="D36" s="160"/>
       <c r="E36" s="100" t="s">
         <v>64</v>
       </c>
@@ -3341,10 +3341,10 @@
       <c r="B37" s="99" t="s">
         <v>68</v>
       </c>
-      <c r="C37" s="174" t="s">
+      <c r="C37" s="160" t="s">
         <v>70</v>
       </c>
-      <c r="D37" s="174"/>
+      <c r="D37" s="160"/>
       <c r="E37" s="100">
         <v>200000</v>
       </c>
@@ -3356,21 +3356,21 @@
       <c r="B38" s="99" t="s">
         <v>69</v>
       </c>
-      <c r="C38" s="174" t="s">
+      <c r="C38" s="160" t="s">
         <v>71</v>
       </c>
-      <c r="D38" s="174"/>
+      <c r="D38" s="160"/>
       <c r="E38" s="100">
         <v>243000</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="32" customFormat="1" ht="15.75">
-      <c r="A39" s="169" t="s">
+      <c r="A39" s="161" t="s">
         <v>54</v>
       </c>
-      <c r="B39" s="169"/>
-      <c r="C39" s="169"/>
-      <c r="D39" s="169"/>
+      <c r="B39" s="161"/>
+      <c r="C39" s="161"/>
+      <c r="D39" s="161"/>
       <c r="E39" s="101">
         <f>SUM(E37:E38)</f>
         <v>443000</v>
@@ -3383,25 +3383,25 @@
     <row r="41" spans="1:5" s="67" customFormat="1" ht="16.5">
       <c r="A41" s="68"/>
       <c r="B41" s="68"/>
-      <c r="C41" s="172" t="s">
+      <c r="C41" s="159" t="s">
         <v>121</v>
       </c>
-      <c r="D41" s="172"/>
-      <c r="E41" s="172"/>
+      <c r="D41" s="159"/>
+      <c r="E41" s="159"/>
     </row>
     <row r="42" spans="1:5" s="67" customFormat="1" ht="16.5">
       <c r="A42" s="68"/>
       <c r="B42" s="68"/>
-      <c r="C42" s="247" t="s">
+      <c r="C42" s="158" t="s">
         <v>129</v>
       </c>
-      <c r="D42" s="172"/>
-      <c r="E42" s="172"/>
+      <c r="D42" s="159"/>
+      <c r="E42" s="159"/>
     </row>
     <row r="43" spans="1:5" s="67" customFormat="1" ht="16.5">
       <c r="A43" s="68"/>
       <c r="B43" s="68"/>
-      <c r="C43" s="248"/>
+      <c r="C43" s="157"/>
       <c r="D43" s="156"/>
       <c r="E43" s="156"/>
     </row>
@@ -3413,37 +3413,37 @@
       <c r="E44" s="68"/>
     </row>
     <row r="45" spans="1:5" s="66" customFormat="1" ht="15.75">
-      <c r="A45" s="170" t="s">
+      <c r="A45" s="180" t="s">
         <v>10</v>
       </c>
-      <c r="B45" s="171"/>
+      <c r="B45" s="181"/>
       <c r="C45" s="69"/>
     </row>
     <row r="46" spans="1:5" s="70" customFormat="1" ht="15">
-      <c r="A46" s="157" t="s">
+      <c r="A46" s="168" t="s">
         <v>119</v>
       </c>
-      <c r="B46" s="158"/>
-      <c r="C46" s="159"/>
+      <c r="B46" s="169"/>
+      <c r="C46" s="170"/>
     </row>
     <row r="47" spans="1:5" s="70" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A47" s="157" t="s">
+      <c r="A47" s="168" t="s">
         <v>120</v>
       </c>
-      <c r="B47" s="158"/>
-      <c r="C47" s="159"/>
+      <c r="B47" s="169"/>
+      <c r="C47" s="170"/>
     </row>
     <row r="48" spans="1:5" s="70" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A48" s="160" t="s">
+      <c r="A48" s="171" t="s">
         <v>14</v>
       </c>
-      <c r="B48" s="161"/>
-      <c r="C48" s="162"/>
+      <c r="B48" s="172"/>
+      <c r="C48" s="173"/>
     </row>
     <row r="53" spans="1:3" s="66" customFormat="1" ht="15">
-      <c r="A53" s="163"/>
-      <c r="B53" s="164"/>
-      <c r="C53" s="164"/>
+      <c r="A53" s="174"/>
+      <c r="B53" s="175"/>
+      <c r="C53" s="175"/>
     </row>
     <row r="54" spans="1:3" s="66" customFormat="1" ht="15"/>
     <row r="55" spans="1:3" s="66" customFormat="1" ht="15"/>
@@ -3481,16 +3481,6 @@
     <row r="87" s="66" customFormat="1" ht="15"/>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="B7:E7"/>
     <mergeCell ref="A46:C46"/>
     <mergeCell ref="A47:C47"/>
     <mergeCell ref="A48:C48"/>
@@ -3507,12 +3497,22 @@
     <mergeCell ref="A35:D35"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <conditionalFormatting sqref="B9:B33 B35:B39">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.38" right="0.31496062992125984" top="0.22" bottom="0.31496062992125984" header="0.12" footer="0.31496062992125984"/>
-  <pageSetup scale="73" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="72" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -3537,102 +3537,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="33" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="181" t="s">
+      <c r="A1" s="196" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="181"/>
-      <c r="C1" s="181"/>
-      <c r="D1" s="181"/>
-      <c r="E1" s="181"/>
+      <c r="B1" s="196"/>
+      <c r="C1" s="196"/>
+      <c r="D1" s="196"/>
+      <c r="E1" s="196"/>
     </row>
     <row r="2" spans="1:5" s="34" customFormat="1" ht="16.5">
-      <c r="A2" s="181"/>
-      <c r="B2" s="181"/>
-      <c r="C2" s="181"/>
-      <c r="D2" s="181"/>
-      <c r="E2" s="181"/>
+      <c r="A2" s="196"/>
+      <c r="B2" s="196"/>
+      <c r="C2" s="196"/>
+      <c r="D2" s="196"/>
+      <c r="E2" s="196"/>
     </row>
     <row r="3" spans="1:5" s="34" customFormat="1" ht="16.5">
-      <c r="A3" s="181"/>
-      <c r="B3" s="181"/>
-      <c r="C3" s="181"/>
-      <c r="D3" s="181"/>
-      <c r="E3" s="181"/>
+      <c r="A3" s="196"/>
+      <c r="B3" s="196"/>
+      <c r="C3" s="196"/>
+      <c r="D3" s="196"/>
+      <c r="E3" s="196"/>
     </row>
     <row r="4" spans="1:5" s="34" customFormat="1" ht="16.5">
-      <c r="A4" s="181"/>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
+      <c r="A4" s="196"/>
+      <c r="B4" s="196"/>
+      <c r="C4" s="196"/>
+      <c r="D4" s="196"/>
+      <c r="E4" s="196"/>
     </row>
     <row r="5" spans="1:5" s="34" customFormat="1" ht="16.5">
-      <c r="A5" s="181"/>
-      <c r="B5" s="181"/>
-      <c r="C5" s="181"/>
-      <c r="D5" s="181"/>
-      <c r="E5" s="181"/>
+      <c r="A5" s="196"/>
+      <c r="B5" s="196"/>
+      <c r="C5" s="196"/>
+      <c r="D5" s="196"/>
+      <c r="E5" s="196"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="C6" s="182" t="s">
+      <c r="C6" s="197" t="s">
         <v>123</v>
       </c>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
+      <c r="D6" s="197"/>
+      <c r="E6" s="197"/>
     </row>
     <row r="7" spans="1:5" s="31" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A7" s="183" t="s">
+      <c r="A7" s="198" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
+      <c r="B7" s="198"/>
+      <c r="C7" s="198"/>
+      <c r="D7" s="198"/>
+      <c r="E7" s="198"/>
     </row>
     <row r="8" spans="1:5" s="102" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A8" s="197" t="s">
+      <c r="A8" s="190" t="s">
         <v>125</v>
       </c>
-      <c r="B8" s="197"/>
-      <c r="C8" s="197"/>
-      <c r="D8" s="197"/>
-      <c r="E8" s="197"/>
+      <c r="B8" s="190"/>
+      <c r="C8" s="190"/>
+      <c r="D8" s="190"/>
+      <c r="E8" s="190"/>
     </row>
     <row r="9" spans="1:5" s="34" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A9" s="184" t="s">
+      <c r="A9" s="199" t="s">
         <v>112</v>
       </c>
-      <c r="B9" s="185"/>
-      <c r="C9" s="185"/>
-      <c r="D9" s="185"/>
-      <c r="E9" s="185"/>
+      <c r="B9" s="200"/>
+      <c r="C9" s="200"/>
+      <c r="D9" s="200"/>
+      <c r="E9" s="200"/>
     </row>
     <row r="10" spans="1:5" s="34" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A10" s="186"/>
-      <c r="B10" s="187"/>
-      <c r="C10" s="187"/>
-      <c r="D10" s="187"/>
-      <c r="E10" s="187"/>
+      <c r="A10" s="201"/>
+      <c r="B10" s="202"/>
+      <c r="C10" s="202"/>
+      <c r="D10" s="202"/>
+      <c r="E10" s="202"/>
     </row>
     <row r="11" spans="1:5" ht="15.75">
-      <c r="A11" s="188" t="s">
+      <c r="A11" s="203" t="s">
         <v>82</v>
       </c>
-      <c r="B11" s="189" t="s">
+      <c r="B11" s="204" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="189" t="s">
+      <c r="C11" s="204" t="s">
         <v>84</v>
       </c>
-      <c r="D11" s="189" t="s">
+      <c r="D11" s="204" t="s">
         <v>73</v>
       </c>
-      <c r="E11" s="189"/>
+      <c r="E11" s="204"/>
     </row>
     <row r="12" spans="1:5" ht="15.75">
-      <c r="A12" s="188"/>
-      <c r="B12" s="189"/>
-      <c r="C12" s="189"/>
+      <c r="A12" s="203"/>
+      <c r="B12" s="204"/>
+      <c r="C12" s="204"/>
       <c r="D12" s="35" t="s">
         <v>74</v>
       </c>
@@ -3641,16 +3641,16 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75">
-      <c r="A13" s="198" t="s">
+      <c r="A13" s="191" t="s">
         <v>85</v>
       </c>
-      <c r="B13" s="199"/>
-      <c r="C13" s="199"/>
-      <c r="D13" s="199"/>
-      <c r="E13" s="199"/>
+      <c r="B13" s="192"/>
+      <c r="C13" s="192"/>
+      <c r="D13" s="192"/>
+      <c r="E13" s="192"/>
     </row>
     <row r="14" spans="1:5" ht="31.5">
-      <c r="A14" s="200">
+      <c r="A14" s="193">
         <v>1</v>
       </c>
       <c r="B14" s="36" t="s">
@@ -3667,7 +3667,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="47.25">
-      <c r="A15" s="201"/>
+      <c r="A15" s="194"/>
       <c r="B15" s="36" t="s">
         <v>88</v>
       </c>
@@ -3682,7 +3682,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="31.5">
-      <c r="A16" s="201"/>
+      <c r="A16" s="194"/>
       <c r="B16" s="36" t="s">
         <v>90</v>
       </c>
@@ -3697,7 +3697,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75">
-      <c r="A17" s="201"/>
+      <c r="A17" s="194"/>
       <c r="B17" s="39" t="s">
         <v>92</v>
       </c>
@@ -3712,7 +3712,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75">
-      <c r="A18" s="201"/>
+      <c r="A18" s="194"/>
       <c r="B18" s="39" t="s">
         <v>94</v>
       </c>
@@ -3727,7 +3727,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75">
-      <c r="A19" s="201"/>
+      <c r="A19" s="194"/>
       <c r="B19" s="39" t="s">
         <v>95</v>
       </c>
@@ -3742,7 +3742,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75">
-      <c r="A20" s="201"/>
+      <c r="A20" s="194"/>
       <c r="B20" s="39" t="s">
         <v>97</v>
       </c>
@@ -4008,11 +4008,11 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.75">
-      <c r="A36" s="192" t="s">
+      <c r="A36" s="185" t="s">
         <v>54</v>
       </c>
-      <c r="B36" s="192"/>
-      <c r="C36" s="192"/>
+      <c r="B36" s="185"/>
+      <c r="C36" s="185"/>
       <c r="D36" s="73">
         <f>SUM(D14:D35)</f>
         <v>1171000</v>
@@ -4023,12 +4023,12 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.75">
-      <c r="A37" s="202" t="s">
+      <c r="A37" s="195" t="s">
         <v>77</v>
       </c>
-      <c r="B37" s="202"/>
-      <c r="C37" s="202"/>
-      <c r="D37" s="202"/>
+      <c r="B37" s="195"/>
+      <c r="C37" s="195"/>
+      <c r="D37" s="195"/>
       <c r="E37" s="56"/>
     </row>
     <row r="38" spans="1:5" ht="31.5">
@@ -4038,10 +4038,10 @@
       <c r="B38" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="C38" s="190" t="s">
+      <c r="C38" s="183" t="s">
         <v>21</v>
       </c>
-      <c r="D38" s="191"/>
+      <c r="D38" s="184"/>
       <c r="E38" s="59" t="s">
         <v>64</v>
       </c>
@@ -4053,10 +4053,10 @@
       <c r="B39" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="C39" s="190" t="s">
+      <c r="C39" s="183" t="s">
         <v>70</v>
       </c>
-      <c r="D39" s="191"/>
+      <c r="D39" s="184"/>
       <c r="E39" s="59">
         <v>210000</v>
       </c>
@@ -4068,46 +4068,54 @@
       <c r="B40" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="C40" s="190" t="s">
+      <c r="C40" s="183" t="s">
         <v>71</v>
       </c>
-      <c r="D40" s="191"/>
+      <c r="D40" s="184"/>
       <c r="E40" s="59">
         <v>260000</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15.75">
-      <c r="A41" s="192" t="s">
+      <c r="A41" s="185" t="s">
         <v>54</v>
       </c>
-      <c r="B41" s="192"/>
-      <c r="C41" s="192"/>
-      <c r="D41" s="192"/>
+      <c r="B41" s="185"/>
+      <c r="C41" s="185"/>
+      <c r="D41" s="185"/>
       <c r="E41" s="74">
         <f>SUM(E39:E40)</f>
         <v>470000</v>
       </c>
     </row>
     <row r="46" spans="1:5" s="60" customFormat="1" ht="16.5">
-      <c r="A46" s="193" t="s">
+      <c r="A46" s="186" t="s">
         <v>113</v>
       </c>
-      <c r="B46" s="194"/>
-      <c r="C46" s="194"/>
-      <c r="D46" s="194"/>
-      <c r="E46" s="194"/>
+      <c r="B46" s="187"/>
+      <c r="C46" s="187"/>
+      <c r="D46" s="187"/>
+      <c r="E46" s="187"/>
     </row>
     <row r="47" spans="1:5" s="61" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A47" s="195" t="s">
+      <c r="A47" s="188" t="s">
         <v>122</v>
       </c>
-      <c r="B47" s="196"/>
-      <c r="C47" s="196"/>
-      <c r="D47" s="196"/>
-      <c r="E47" s="196"/>
+      <c r="B47" s="189"/>
+      <c r="C47" s="189"/>
+      <c r="D47" s="189"/>
+      <c r="E47" s="189"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A1:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A9:E10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:E11"/>
     <mergeCell ref="C40:D40"/>
     <mergeCell ref="A41:D41"/>
     <mergeCell ref="A46:E46"/>
@@ -4119,14 +4127,6 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="C39:D39"/>
-    <mergeCell ref="A1:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A9:E10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:E11"/>
   </mergeCells>
   <conditionalFormatting sqref="B11:B35 B37:B41">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
@@ -4144,8 +4144,8 @@
   </sheetPr>
   <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A34" zoomScale="60" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5"/>
@@ -4161,39 +4161,39 @@
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="17.25" customHeight="1">
       <c r="B1" s="20"/>
-      <c r="C1" s="217" t="s">
+      <c r="C1" s="238" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="218"/>
-      <c r="E1" s="218"/>
-      <c r="F1" s="219"/>
+      <c r="D1" s="239"/>
+      <c r="E1" s="239"/>
+      <c r="F1" s="240"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="B2" s="21"/>
-      <c r="C2" s="217" t="s">
+      <c r="C2" s="238" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="218"/>
-      <c r="E2" s="218"/>
-      <c r="F2" s="219"/>
+      <c r="D2" s="239"/>
+      <c r="E2" s="239"/>
+      <c r="F2" s="240"/>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="B3" s="21"/>
-      <c r="C3" s="217" t="s">
+      <c r="C3" s="238" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="218"/>
-      <c r="E3" s="218"/>
-      <c r="F3" s="219"/>
+      <c r="D3" s="239"/>
+      <c r="E3" s="239"/>
+      <c r="F3" s="240"/>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="B4" s="21"/>
-      <c r="C4" s="217" t="s">
+      <c r="C4" s="238" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="218"/>
-      <c r="E4" s="218"/>
-      <c r="F4" s="219"/>
+      <c r="D4" s="239"/>
+      <c r="E4" s="239"/>
+      <c r="F4" s="240"/>
     </row>
     <row r="5" spans="1:9" s="2" customFormat="1" ht="17.25">
       <c r="B5" s="21"/>
@@ -4210,12 +4210,12 @@
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:9" s="2" customFormat="1" ht="22.5">
-      <c r="B7" s="211" t="s">
+      <c r="B7" s="248" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="211"/>
-      <c r="D7" s="211"/>
-      <c r="E7" s="211"/>
+      <c r="C7" s="248"/>
+      <c r="D7" s="248"/>
+      <c r="E7" s="248"/>
       <c r="F7" s="6"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -4233,62 +4233,62 @@
     </row>
     <row r="9" spans="1:9" s="2" customFormat="1" ht="15.75" customHeight="1">
       <c r="A9" s="103"/>
-      <c r="B9" s="220" t="s">
+      <c r="B9" s="241" t="s">
         <v>128</v>
       </c>
-      <c r="C9" s="221"/>
-      <c r="D9" s="221"/>
-      <c r="E9" s="221"/>
+      <c r="C9" s="242"/>
+      <c r="D9" s="242"/>
+      <c r="E9" s="242"/>
       <c r="F9" s="104"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:9" s="2" customFormat="1" ht="21" customHeight="1">
-      <c r="A10" s="207" t="s">
+      <c r="A10" s="244" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="208"/>
-      <c r="C10" s="208"/>
-      <c r="D10" s="208"/>
-      <c r="E10" s="208"/>
+      <c r="B10" s="245"/>
+      <c r="C10" s="245"/>
+      <c r="D10" s="245"/>
+      <c r="E10" s="245"/>
       <c r="F10" s="105"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
     </row>
     <row r="11" spans="1:9" s="2" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A11" s="209"/>
-      <c r="B11" s="210"/>
-      <c r="C11" s="210"/>
-      <c r="D11" s="210"/>
-      <c r="E11" s="210"/>
+      <c r="A11" s="246"/>
+      <c r="B11" s="247"/>
+      <c r="C11" s="247"/>
+      <c r="D11" s="247"/>
+      <c r="E11" s="247"/>
       <c r="F11" s="106"/>
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
       <c r="I11" s="25"/>
     </row>
     <row r="12" spans="1:9" ht="20.25">
-      <c r="A12" s="215" t="s">
+      <c r="A12" s="225" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="229" t="s">
+      <c r="B12" s="221" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="230"/>
-      <c r="D12" s="215" t="s">
+      <c r="C12" s="222"/>
+      <c r="D12" s="225" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="225" t="s">
+      <c r="E12" s="217" t="s">
         <v>126</v>
       </c>
-      <c r="F12" s="225"/>
+      <c r="F12" s="217"/>
       <c r="G12" s="24"/>
     </row>
     <row r="13" spans="1:9" ht="20.25">
-      <c r="A13" s="216"/>
-      <c r="B13" s="231"/>
-      <c r="C13" s="232"/>
-      <c r="D13" s="216"/>
+      <c r="A13" s="226"/>
+      <c r="B13" s="223"/>
+      <c r="C13" s="224"/>
+      <c r="D13" s="226"/>
       <c r="E13" s="107" t="s">
         <v>74</v>
       </c>
@@ -4298,75 +4298,75 @@
       <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:9" ht="60.75">
-      <c r="A14" s="203">
+      <c r="A14" s="234">
         <v>1</v>
       </c>
-      <c r="B14" s="212" t="s">
+      <c r="B14" s="206" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="203" t="s">
+      <c r="C14" s="234" t="s">
         <v>1</v>
       </c>
       <c r="D14" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="206">
+      <c r="E14" s="243">
         <v>150000</v>
       </c>
-      <c r="F14" s="226">
+      <c r="F14" s="218">
         <v>150000</v>
       </c>
       <c r="G14" s="24"/>
     </row>
     <row r="15" spans="1:9" ht="40.5">
-      <c r="A15" s="204"/>
-      <c r="B15" s="213"/>
-      <c r="C15" s="204"/>
+      <c r="A15" s="235"/>
+      <c r="B15" s="237"/>
+      <c r="C15" s="235"/>
       <c r="D15" s="108" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="206"/>
-      <c r="F15" s="227"/>
+      <c r="E15" s="243"/>
+      <c r="F15" s="219"/>
       <c r="G15" s="24"/>
     </row>
     <row r="16" spans="1:9" ht="60.75">
-      <c r="A16" s="204"/>
-      <c r="B16" s="213"/>
-      <c r="C16" s="204"/>
+      <c r="A16" s="235"/>
+      <c r="B16" s="237"/>
+      <c r="C16" s="235"/>
       <c r="D16" s="108" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="206"/>
-      <c r="F16" s="227"/>
+      <c r="E16" s="243"/>
+      <c r="F16" s="219"/>
       <c r="G16" s="24"/>
     </row>
     <row r="17" spans="1:7" ht="60.75">
-      <c r="A17" s="204"/>
-      <c r="B17" s="213"/>
-      <c r="C17" s="204"/>
+      <c r="A17" s="235"/>
+      <c r="B17" s="237"/>
+      <c r="C17" s="235"/>
       <c r="D17" s="108" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="206"/>
-      <c r="F17" s="227"/>
+      <c r="E17" s="243"/>
+      <c r="F17" s="219"/>
       <c r="G17" s="24"/>
     </row>
     <row r="18" spans="1:7" ht="40.5">
-      <c r="A18" s="205"/>
-      <c r="B18" s="214"/>
-      <c r="C18" s="205"/>
+      <c r="A18" s="236"/>
+      <c r="B18" s="207"/>
+      <c r="C18" s="236"/>
       <c r="D18" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="206"/>
-      <c r="F18" s="228"/>
+      <c r="E18" s="243"/>
+      <c r="F18" s="220"/>
       <c r="G18" s="24"/>
     </row>
     <row r="19" spans="1:7" ht="40.5">
       <c r="A19" s="110">
         <v>2</v>
       </c>
-      <c r="B19" s="212" t="s">
+      <c r="B19" s="206" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="111" t="s">
@@ -4387,7 +4387,7 @@
       <c r="A20" s="110">
         <v>3</v>
       </c>
-      <c r="B20" s="213"/>
+      <c r="B20" s="237"/>
       <c r="C20" s="111" t="s">
         <v>27</v>
       </c>
@@ -4407,7 +4407,7 @@
       <c r="A21" s="110">
         <v>4</v>
       </c>
-      <c r="B21" s="213"/>
+      <c r="B21" s="237"/>
       <c r="C21" s="111" t="s">
         <v>29</v>
       </c>
@@ -4427,7 +4427,7 @@
       <c r="A22" s="110">
         <v>5</v>
       </c>
-      <c r="B22" s="214"/>
+      <c r="B22" s="207"/>
       <c r="C22" s="111" t="s">
         <v>31</v>
       </c>
@@ -4513,7 +4513,7 @@
       <c r="A26" s="110">
         <v>9</v>
       </c>
-      <c r="B26" s="212" t="s">
+      <c r="B26" s="206" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="114" t="s">
@@ -4535,7 +4535,7 @@
       <c r="A27" s="110">
         <v>10</v>
       </c>
-      <c r="B27" s="214"/>
+      <c r="B27" s="207"/>
       <c r="C27" s="114" t="s">
         <v>41</v>
       </c>
@@ -4577,7 +4577,7 @@
       <c r="A29" s="110">
         <v>12</v>
       </c>
-      <c r="B29" s="212" t="s">
+      <c r="B29" s="206" t="s">
         <v>44</v>
       </c>
       <c r="C29" s="114" t="s">
@@ -4599,7 +4599,7 @@
       <c r="A30" s="110">
         <v>13</v>
       </c>
-      <c r="B30" s="214"/>
+      <c r="B30" s="207"/>
       <c r="C30" s="114" t="s">
         <v>47</v>
       </c>
@@ -4641,7 +4641,7 @@
       <c r="A32" s="110">
         <v>15</v>
       </c>
-      <c r="B32" s="241" t="s">
+      <c r="B32" s="208" t="s">
         <v>65</v>
       </c>
       <c r="C32" s="114" t="s">
@@ -4658,7 +4658,7 @@
       <c r="A33" s="110">
         <v>16</v>
       </c>
-      <c r="B33" s="242"/>
+      <c r="B33" s="209"/>
       <c r="C33" s="114" t="s">
         <v>63</v>
       </c>
@@ -4706,12 +4706,12 @@
       <c r="G35" s="24"/>
     </row>
     <row r="36" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A36" s="233" t="s">
+      <c r="A36" s="227" t="s">
         <v>54</v>
       </c>
-      <c r="B36" s="234"/>
-      <c r="C36" s="234"/>
-      <c r="D36" s="235"/>
+      <c r="B36" s="228"/>
+      <c r="C36" s="228"/>
+      <c r="D36" s="229"/>
       <c r="E36" s="127">
         <v>1023000</v>
       </c>
@@ -4721,12 +4721,12 @@
       <c r="G36" s="24"/>
     </row>
     <row r="37" spans="1:7" ht="39.75" customHeight="1">
-      <c r="A37" s="237" t="s">
+      <c r="A37" s="231" t="s">
         <v>77</v>
       </c>
-      <c r="B37" s="237"/>
-      <c r="C37" s="237"/>
-      <c r="D37" s="237"/>
+      <c r="B37" s="231"/>
+      <c r="C37" s="231"/>
+      <c r="D37" s="231"/>
       <c r="E37" s="128"/>
       <c r="F37" s="129"/>
       <c r="G37" s="24"/>
@@ -4735,10 +4735,10 @@
       <c r="A38" s="30">
         <v>1</v>
       </c>
-      <c r="B38" s="238" t="s">
+      <c r="B38" s="232" t="s">
         <v>67</v>
       </c>
-      <c r="C38" s="238"/>
+      <c r="C38" s="232"/>
       <c r="D38" s="130" t="s">
         <v>21</v>
       </c>
@@ -4752,10 +4752,10 @@
       <c r="A39" s="30">
         <v>2</v>
       </c>
-      <c r="B39" s="238" t="s">
+      <c r="B39" s="232" t="s">
         <v>68</v>
       </c>
-      <c r="C39" s="238"/>
+      <c r="C39" s="232"/>
       <c r="D39" s="130" t="s">
         <v>70</v>
       </c>
@@ -4769,10 +4769,10 @@
       <c r="A40" s="30">
         <v>3</v>
       </c>
-      <c r="B40" s="238" t="s">
+      <c r="B40" s="232" t="s">
         <v>69</v>
       </c>
-      <c r="C40" s="238"/>
+      <c r="C40" s="232"/>
       <c r="D40" s="130" t="s">
         <v>71</v>
       </c>
@@ -4783,12 +4783,12 @@
       <c r="G40" s="24"/>
     </row>
     <row r="41" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A41" s="239" t="s">
+      <c r="A41" s="233" t="s">
         <v>54</v>
       </c>
-      <c r="B41" s="239"/>
-      <c r="C41" s="239"/>
-      <c r="D41" s="239"/>
+      <c r="B41" s="233"/>
+      <c r="C41" s="233"/>
+      <c r="D41" s="233"/>
       <c r="E41" s="127">
         <f>SUM(E38:E40)</f>
         <v>416000</v>
@@ -4849,11 +4849,11 @@
       <c r="A47" s="12"/>
       <c r="B47" s="19"/>
       <c r="C47" s="14"/>
-      <c r="D47" s="244" t="s">
+      <c r="D47" s="211" t="s">
         <v>127</v>
       </c>
-      <c r="E47" s="245"/>
-      <c r="F47" s="246"/>
+      <c r="E47" s="212"/>
+      <c r="F47" s="213"/>
       <c r="G47" s="15"/>
     </row>
     <row r="48" spans="1:7">
@@ -4956,83 +4956,83 @@
       <c r="G58" s="15"/>
     </row>
     <row r="59" spans="1:7" s="138" customFormat="1" ht="20.25">
-      <c r="A59" s="236" t="s">
+      <c r="A59" s="230" t="s">
         <v>10</v>
       </c>
-      <c r="B59" s="236"/>
-      <c r="C59" s="236"/>
-      <c r="D59" s="236"/>
+      <c r="B59" s="230"/>
+      <c r="C59" s="230"/>
+      <c r="D59" s="230"/>
       <c r="E59" s="140"/>
       <c r="F59" s="141"/>
     </row>
     <row r="60" spans="1:7" s="138" customFormat="1" ht="20.25">
       <c r="A60" s="142"/>
-      <c r="B60" s="240" t="s">
+      <c r="B60" s="205" t="s">
         <v>58</v>
       </c>
-      <c r="C60" s="240"/>
-      <c r="D60" s="240"/>
-      <c r="E60" s="240"/>
-      <c r="F60" s="240"/>
+      <c r="C60" s="205"/>
+      <c r="D60" s="205"/>
+      <c r="E60" s="205"/>
+      <c r="F60" s="205"/>
     </row>
     <row r="61" spans="1:7" s="138" customFormat="1" ht="20.25">
       <c r="A61" s="142"/>
-      <c r="B61" s="240" t="s">
+      <c r="B61" s="205" t="s">
         <v>80</v>
       </c>
-      <c r="C61" s="240"/>
-      <c r="D61" s="240"/>
-      <c r="E61" s="240"/>
-      <c r="F61" s="240"/>
+      <c r="C61" s="205"/>
+      <c r="D61" s="205"/>
+      <c r="E61" s="205"/>
+      <c r="F61" s="205"/>
     </row>
     <row r="62" spans="1:7" s="138" customFormat="1" ht="62.25" customHeight="1">
       <c r="A62" s="143"/>
-      <c r="B62" s="240" t="s">
+      <c r="B62" s="205" t="s">
         <v>59</v>
       </c>
-      <c r="C62" s="240"/>
-      <c r="D62" s="240"/>
-      <c r="E62" s="240"/>
-      <c r="F62" s="240"/>
+      <c r="C62" s="205"/>
+      <c r="D62" s="205"/>
+      <c r="E62" s="205"/>
+      <c r="F62" s="205"/>
     </row>
     <row r="63" spans="1:7" s="138" customFormat="1" ht="45.75" customHeight="1">
       <c r="A63" s="144"/>
-      <c r="B63" s="243" t="s">
+      <c r="B63" s="210" t="s">
         <v>11</v>
       </c>
-      <c r="C63" s="243"/>
-      <c r="D63" s="243"/>
-      <c r="E63" s="243"/>
-      <c r="F63" s="243"/>
+      <c r="C63" s="210"/>
+      <c r="D63" s="210"/>
+      <c r="E63" s="210"/>
+      <c r="F63" s="210"/>
     </row>
     <row r="64" spans="1:7" s="138" customFormat="1" ht="20.25">
       <c r="A64" s="141"/>
-      <c r="B64" s="240" t="s">
+      <c r="B64" s="205" t="s">
         <v>12</v>
       </c>
-      <c r="C64" s="240"/>
-      <c r="D64" s="240"/>
-      <c r="E64" s="240"/>
-      <c r="F64" s="240"/>
+      <c r="C64" s="205"/>
+      <c r="D64" s="205"/>
+      <c r="E64" s="205"/>
+      <c r="F64" s="205"/>
     </row>
     <row r="65" spans="1:9" s="138" customFormat="1" ht="20.25">
       <c r="A65" s="141"/>
-      <c r="B65" s="222" t="s">
+      <c r="B65" s="214" t="s">
         <v>13</v>
       </c>
-      <c r="C65" s="223"/>
-      <c r="D65" s="223"/>
-      <c r="E65" s="224"/>
+      <c r="C65" s="215"/>
+      <c r="D65" s="215"/>
+      <c r="E65" s="216"/>
       <c r="F65" s="141"/>
     </row>
     <row r="66" spans="1:9" s="138" customFormat="1" ht="20.25">
       <c r="A66" s="141"/>
-      <c r="B66" s="222" t="s">
+      <c r="B66" s="214" t="s">
         <v>14</v>
       </c>
-      <c r="C66" s="223"/>
-      <c r="D66" s="223"/>
-      <c r="E66" s="224"/>
+      <c r="C66" s="215"/>
+      <c r="D66" s="215"/>
+      <c r="E66" s="216"/>
       <c r="F66" s="141"/>
     </row>
     <row r="67" spans="1:9" s="138" customFormat="1" ht="20.25">
@@ -5081,14 +5081,17 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B64:F64"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B60:F60"/>
-    <mergeCell ref="B61:F61"/>
-    <mergeCell ref="B62:F62"/>
-    <mergeCell ref="B63:F63"/>
-    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="E14:E18"/>
+    <mergeCell ref="A10:E11"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="B9:E9"/>
     <mergeCell ref="B65:E65"/>
     <mergeCell ref="B66:E66"/>
     <mergeCell ref="E12:F12"/>
@@ -5105,21 +5108,18 @@
     <mergeCell ref="A41:D41"/>
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="E14:E18"/>
-    <mergeCell ref="A10:E11"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B64:F64"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B60:F60"/>
+    <mergeCell ref="B61:F61"/>
+    <mergeCell ref="B62:F62"/>
+    <mergeCell ref="B63:F63"/>
+    <mergeCell ref="D47:F47"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.11811023622047245" top="0.39370078740157483" bottom="0.15748031496062992" header="0.39370078740157483" footer="0.11811023622047245"/>
-  <pageSetup scale="61" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="60" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>